--- a/data/pca/factorExposure/factorExposure_2015-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008191578486624202</v>
+        <v>0.008642038363243338</v>
       </c>
       <c r="C2">
-        <v>0.03980583815348642</v>
+        <v>-0.05331482881652395</v>
       </c>
       <c r="D2">
-        <v>-0.129661887914429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02966344738780207</v>
+      </c>
+      <c r="E2">
+        <v>-0.1134813079726307</v>
+      </c>
+      <c r="F2">
+        <v>0.1425724095368046</v>
+      </c>
+      <c r="G2">
+        <v>-0.06193017144047571</v>
+      </c>
+      <c r="H2">
+        <v>-0.02304197990337572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03339228108593671</v>
+        <v>0.01790681522533333</v>
       </c>
       <c r="C4">
-        <v>0.1200085627586707</v>
+        <v>-0.1397109931805486</v>
       </c>
       <c r="D4">
-        <v>-0.08613830806108155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.01433106605645747</v>
+      </c>
+      <c r="E4">
+        <v>-0.07821595708417022</v>
+      </c>
+      <c r="F4">
+        <v>0.1024963934901143</v>
+      </c>
+      <c r="G4">
+        <v>0.06687154139181856</v>
+      </c>
+      <c r="H4">
+        <v>-0.03129812709948539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01958947062044298</v>
+        <v>0.03041730329645433</v>
       </c>
       <c r="C6">
-        <v>0.04021142738148599</v>
+        <v>-0.05130840765457119</v>
       </c>
       <c r="D6">
-        <v>-0.0837521087923363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.005076204245148382</v>
+      </c>
+      <c r="E6">
+        <v>-0.106464503856188</v>
+      </c>
+      <c r="F6">
+        <v>0.0676203901914432</v>
+      </c>
+      <c r="G6">
+        <v>-0.006520345457681625</v>
+      </c>
+      <c r="H6">
+        <v>0.04823139764951699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01125805905505027</v>
+        <v>0.004984866603830958</v>
       </c>
       <c r="C7">
-        <v>0.03979065845324953</v>
+        <v>-0.0552332293502428</v>
       </c>
       <c r="D7">
-        <v>-0.07808624442133012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.008588855164727268</v>
+      </c>
+      <c r="E7">
+        <v>-0.08995972166631726</v>
+      </c>
+      <c r="F7">
+        <v>0.01284271242796256</v>
+      </c>
+      <c r="G7">
+        <v>0.02075933900615524</v>
+      </c>
+      <c r="H7">
+        <v>0.01250338817709999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.004915758253153845</v>
+        <v>-0.00693816854564778</v>
       </c>
       <c r="C8">
-        <v>0.04631370609115785</v>
+        <v>-0.05430835968935175</v>
       </c>
       <c r="D8">
-        <v>-0.07361509482532817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004184713280250457</v>
+      </c>
+      <c r="E8">
+        <v>-0.06064674328594553</v>
+      </c>
+      <c r="F8">
+        <v>0.07793678176887149</v>
+      </c>
+      <c r="G8">
+        <v>0.01419287209252505</v>
+      </c>
+      <c r="H8">
+        <v>-0.05597182122961294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.01872134366470016</v>
+        <v>0.01010857058794518</v>
       </c>
       <c r="C9">
-        <v>0.09800344221842154</v>
+        <v>-0.1118567896410097</v>
       </c>
       <c r="D9">
-        <v>-0.08167239140754998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01428705999916839</v>
+      </c>
+      <c r="E9">
+        <v>-0.0697935923313994</v>
+      </c>
+      <c r="F9">
+        <v>0.0720027533506985</v>
+      </c>
+      <c r="G9">
+        <v>0.02586322063466083</v>
+      </c>
+      <c r="H9">
+        <v>0.009959938225428068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.224009883749829</v>
+        <v>0.242783938334144</v>
       </c>
       <c r="C10">
-        <v>-0.1043745435001107</v>
+        <v>0.08231930293013662</v>
       </c>
       <c r="D10">
-        <v>0.04573934221798652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003997063470552518</v>
+      </c>
+      <c r="E10">
+        <v>0.02566305153038856</v>
+      </c>
+      <c r="F10">
+        <v>0.01735138011447045</v>
+      </c>
+      <c r="G10">
+        <v>0.01176807367379491</v>
+      </c>
+      <c r="H10">
+        <v>0.0148317896920504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.005150060101109692</v>
+        <v>0.01036299396784475</v>
       </c>
       <c r="C11">
-        <v>0.04667266285558732</v>
+        <v>-0.06630452620896689</v>
       </c>
       <c r="D11">
-        <v>-0.05155406187787745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002362033612096616</v>
+      </c>
+      <c r="E11">
+        <v>-0.05846964292185707</v>
+      </c>
+      <c r="F11">
+        <v>0.007538648681871117</v>
+      </c>
+      <c r="G11">
+        <v>0.01425078204362599</v>
+      </c>
+      <c r="H11">
+        <v>0.007939348362933415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.007045516944958558</v>
+        <v>0.0112375780264233</v>
       </c>
       <c r="C12">
-        <v>0.05011701205469738</v>
+        <v>-0.05737165281492793</v>
       </c>
       <c r="D12">
-        <v>-0.05210596847728347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.003347089965347267</v>
+      </c>
+      <c r="E12">
+        <v>-0.04943068699525095</v>
+      </c>
+      <c r="F12">
+        <v>0.002321314769489343</v>
+      </c>
+      <c r="G12">
+        <v>-0.01551601304001631</v>
+      </c>
+      <c r="H12">
+        <v>0.01920370375679196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01288150953953828</v>
+        <v>0.002641699920454052</v>
       </c>
       <c r="C13">
-        <v>0.06099100330471866</v>
+        <v>-0.08997577614029212</v>
       </c>
       <c r="D13">
-        <v>-0.1261968434712718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04377853616883181</v>
+      </c>
+      <c r="E13">
+        <v>-0.1259473062789624</v>
+      </c>
+      <c r="F13">
+        <v>0.07047430943778056</v>
+      </c>
+      <c r="G13">
+        <v>-0.09432680269135703</v>
+      </c>
+      <c r="H13">
+        <v>0.04716549881663809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01031204570506335</v>
+        <v>0.002655480278685683</v>
       </c>
       <c r="C14">
-        <v>0.02632836977002657</v>
+        <v>-0.0500820454682425</v>
       </c>
       <c r="D14">
-        <v>-0.06547135942942058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01003443214370431</v>
+      </c>
+      <c r="E14">
+        <v>-0.1042985283589925</v>
+      </c>
+      <c r="F14">
+        <v>0.04096449570922452</v>
+      </c>
+      <c r="G14">
+        <v>-0.03293636774308115</v>
+      </c>
+      <c r="H14">
+        <v>0.03292229307102908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001989115320851134</v>
+        <v>-0.004791619166859018</v>
       </c>
       <c r="C15">
-        <v>0.02199099823680627</v>
+        <v>-0.04331643292724154</v>
       </c>
       <c r="D15">
-        <v>-0.06777652078383568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01327853143078747</v>
+      </c>
+      <c r="E15">
+        <v>-0.07314240798661502</v>
+      </c>
+      <c r="F15">
+        <v>0.0257194406587651</v>
+      </c>
+      <c r="G15">
+        <v>0.0007243366078901852</v>
+      </c>
+      <c r="H15">
+        <v>-0.01273354970750598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.006075986919997747</v>
+        <v>0.009556415718918999</v>
       </c>
       <c r="C16">
-        <v>0.04385093224117357</v>
+        <v>-0.05779467493632803</v>
       </c>
       <c r="D16">
-        <v>-0.04667452130106955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002840852139318399</v>
+      </c>
+      <c r="E16">
+        <v>-0.04984370951113278</v>
+      </c>
+      <c r="F16">
+        <v>-0.001748562437519674</v>
+      </c>
+      <c r="G16">
+        <v>0.009584794404075772</v>
+      </c>
+      <c r="H16">
+        <v>0.02545142392802424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.006222189367110397</v>
+        <v>0.002303974150430473</v>
       </c>
       <c r="C19">
-        <v>0.01985390448765263</v>
+        <v>-0.01457913401499885</v>
       </c>
       <c r="D19">
-        <v>-0.02988527500082083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.00202512119191603</v>
+      </c>
+      <c r="E19">
+        <v>-0.008974020328797397</v>
+      </c>
+      <c r="F19">
+        <v>0.002348754892479083</v>
+      </c>
+      <c r="G19">
+        <v>-0.02251562131551112</v>
+      </c>
+      <c r="H19">
+        <v>-0.02539723725627089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00585355297118262</v>
+        <v>0.001978873394788992</v>
       </c>
       <c r="C20">
-        <v>0.04180313712658295</v>
+        <v>-0.06190950321385024</v>
       </c>
       <c r="D20">
-        <v>-0.0617428063619297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01333852096798044</v>
+      </c>
+      <c r="E20">
+        <v>-0.07373524861939849</v>
+      </c>
+      <c r="F20">
+        <v>0.01893077047460581</v>
+      </c>
+      <c r="G20">
+        <v>0.02163797314545492</v>
+      </c>
+      <c r="H20">
+        <v>0.02086541157323213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.006144409835582526</v>
+        <v>0.005094177385967472</v>
       </c>
       <c r="C21">
-        <v>0.06280093003242003</v>
+        <v>-0.07259169141824223</v>
       </c>
       <c r="D21">
-        <v>-0.08590532319687658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.008462020895143231</v>
+      </c>
+      <c r="E21">
+        <v>-0.07986832867975933</v>
+      </c>
+      <c r="F21">
+        <v>0.09419967916709913</v>
+      </c>
+      <c r="G21">
+        <v>-0.1037613644905402</v>
+      </c>
+      <c r="H21">
+        <v>0.02112915873085962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.008105539316250887</v>
+        <v>-0.01217927848043888</v>
       </c>
       <c r="C22">
-        <v>0.07187274171125702</v>
+        <v>-0.1022177588434856</v>
       </c>
       <c r="D22">
-        <v>-0.1979764257106351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1050019622233727</v>
+      </c>
+      <c r="E22">
+        <v>-0.2046783349497273</v>
+      </c>
+      <c r="F22">
+        <v>0.2521164908223926</v>
+      </c>
+      <c r="G22">
+        <v>0.08624926273007405</v>
+      </c>
+      <c r="H22">
+        <v>-0.2064519003766473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008314686812991393</v>
+        <v>-0.009063994562816962</v>
       </c>
       <c r="C23">
-        <v>0.07312563929446668</v>
+        <v>-0.1050897265933589</v>
       </c>
       <c r="D23">
-        <v>-0.197281078451854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1079840157332018</v>
+      </c>
+      <c r="E23">
+        <v>-0.2030510310782042</v>
+      </c>
+      <c r="F23">
+        <v>0.2492152959683656</v>
+      </c>
+      <c r="G23">
+        <v>0.0815580938545605</v>
+      </c>
+      <c r="H23">
+        <v>-0.1980988087442702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.007345198471053463</v>
+        <v>0.0108543337339585</v>
       </c>
       <c r="C24">
-        <v>0.06569278327866836</v>
+        <v>-0.07430784866912432</v>
       </c>
       <c r="D24">
-        <v>-0.05841484842307471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01136435093359764</v>
+      </c>
+      <c r="E24">
+        <v>-0.05975773145076058</v>
+      </c>
+      <c r="F24">
+        <v>0.00536779487838495</v>
+      </c>
+      <c r="G24">
+        <v>0.00179179372872606</v>
+      </c>
+      <c r="H24">
+        <v>0.009286227696536344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.008921030188100513</v>
+        <v>0.01447121609623675</v>
       </c>
       <c r="C25">
-        <v>0.05871971011532262</v>
+        <v>-0.06852104911056546</v>
       </c>
       <c r="D25">
-        <v>-0.04580018212905205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.002396385881343352</v>
+      </c>
+      <c r="E25">
+        <v>-0.04375928689070269</v>
+      </c>
+      <c r="F25">
+        <v>0.005926983123499353</v>
+      </c>
+      <c r="G25">
+        <v>0.01009463990013451</v>
+      </c>
+      <c r="H25">
+        <v>0.01262206938148908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.005906792558773758</v>
+        <v>0.01671797997458426</v>
       </c>
       <c r="C26">
-        <v>0.02913494119193574</v>
+        <v>-0.04727092332381249</v>
       </c>
       <c r="D26">
-        <v>-0.05416781235086483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02261605551212792</v>
+      </c>
+      <c r="E26">
+        <v>-0.06841561842730906</v>
+      </c>
+      <c r="F26">
+        <v>0.05225820529157712</v>
+      </c>
+      <c r="G26">
+        <v>-0.01144357813843757</v>
+      </c>
+      <c r="H26">
+        <v>-0.005999977792222765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3090673436189816</v>
+        <v>0.3149442251157103</v>
       </c>
       <c r="C28">
-        <v>-0.1133261896865487</v>
+        <v>0.09432805345468021</v>
       </c>
       <c r="D28">
-        <v>0.03875176701396416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.008249141419847618</v>
+      </c>
+      <c r="E28">
+        <v>0.05092577417331736</v>
+      </c>
+      <c r="F28">
+        <v>0.068892630633272</v>
+      </c>
+      <c r="G28">
+        <v>0.01008928755795335</v>
+      </c>
+      <c r="H28">
+        <v>-0.07112817616291339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0002328004578999857</v>
+        <v>0.002825718341424972</v>
       </c>
       <c r="C29">
-        <v>0.03404722321767309</v>
+        <v>-0.05875599181604757</v>
       </c>
       <c r="D29">
-        <v>-0.07538471817738376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0004553490723294799</v>
+      </c>
+      <c r="E29">
+        <v>-0.1150538976950593</v>
+      </c>
+      <c r="F29">
+        <v>0.04164675772968298</v>
+      </c>
+      <c r="G29">
+        <v>-0.03591623003691193</v>
+      </c>
+      <c r="H29">
+        <v>0.06008639828329483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.01828451152807239</v>
+        <v>0.018411705999507</v>
       </c>
       <c r="C30">
-        <v>0.09496575616361917</v>
+        <v>-0.1173700440350348</v>
       </c>
       <c r="D30">
-        <v>-0.1421907630162827</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.004126020632157358</v>
+      </c>
+      <c r="E30">
+        <v>-0.1458217870363891</v>
+      </c>
+      <c r="F30">
+        <v>0.0537012656177196</v>
+      </c>
+      <c r="G30">
+        <v>0.02695710439846532</v>
+      </c>
+      <c r="H30">
+        <v>0.001715974978594322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01148432109956072</v>
+        <v>0.009044369226322574</v>
       </c>
       <c r="C31">
-        <v>0.09927637998603601</v>
+        <v>-0.1035667492324132</v>
       </c>
       <c r="D31">
-        <v>-0.0371570608728165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004359314006077416</v>
+      </c>
+      <c r="E31">
+        <v>-0.01917375150617696</v>
+      </c>
+      <c r="F31">
+        <v>-0.0003304892044514854</v>
+      </c>
+      <c r="G31">
+        <v>-0.01119041788647686</v>
+      </c>
+      <c r="H31">
+        <v>-0.0287646932818423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0130847674470087</v>
+        <v>0.01301238103697384</v>
       </c>
       <c r="C32">
-        <v>0.05974980965906921</v>
+        <v>-0.06558425339436594</v>
       </c>
       <c r="D32">
-        <v>-0.08719318997354536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02177587207890367</v>
+      </c>
+      <c r="E32">
+        <v>-0.05494581081374688</v>
+      </c>
+      <c r="F32">
+        <v>0.101718672313753</v>
+      </c>
+      <c r="G32">
+        <v>-0.03425806602478571</v>
+      </c>
+      <c r="H32">
+        <v>0.005575750594434576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0004837512244749383</v>
+        <v>0.007555226370367002</v>
       </c>
       <c r="C33">
-        <v>0.05914931352654983</v>
+        <v>-0.08368351495373909</v>
       </c>
       <c r="D33">
-        <v>-0.08292532469844295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0160312818090072</v>
+      </c>
+      <c r="E33">
+        <v>-0.09223242424418351</v>
+      </c>
+      <c r="F33">
+        <v>0.03939992550731605</v>
+      </c>
+      <c r="G33">
+        <v>-0.002748618270637926</v>
+      </c>
+      <c r="H33">
+        <v>0.008002102749252638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.00515414919676743</v>
+        <v>0.01062447651495347</v>
       </c>
       <c r="C34">
-        <v>0.06832972693262857</v>
+        <v>-0.06750870671083467</v>
       </c>
       <c r="D34">
-        <v>-0.07097393866633107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.005409227314102643</v>
+      </c>
+      <c r="E34">
+        <v>-0.05057797206562259</v>
+      </c>
+      <c r="F34">
+        <v>-0.02479077580218391</v>
+      </c>
+      <c r="G34">
+        <v>-0.01793507011276834</v>
+      </c>
+      <c r="H34">
+        <v>0.0002716049313315299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.001218793175749646</v>
+        <v>0.004652358968511554</v>
       </c>
       <c r="C35">
-        <v>0.001710801522876182</v>
+        <v>-0.02299457407655919</v>
       </c>
       <c r="D35">
-        <v>-0.006653678510179329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005498169259026271</v>
+      </c>
+      <c r="E35">
+        <v>-0.03603942510867853</v>
+      </c>
+      <c r="F35">
+        <v>0.02469600611936767</v>
+      </c>
+      <c r="G35">
+        <v>-0.001008578998041445</v>
+      </c>
+      <c r="H35">
+        <v>0.02757156558913394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.00204124131109002</v>
+        <v>0.008989315206632724</v>
       </c>
       <c r="C36">
-        <v>0.0271901747850263</v>
+        <v>-0.03824337583365444</v>
       </c>
       <c r="D36">
-        <v>-0.04338772780799659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.009284203476779626</v>
+      </c>
+      <c r="E36">
+        <v>-0.0596153598671</v>
+      </c>
+      <c r="F36">
+        <v>0.05212588985676012</v>
+      </c>
+      <c r="G36">
+        <v>-0.003171091281762133</v>
+      </c>
+      <c r="H36">
+        <v>0.005013902404938208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005817556381033079</v>
+        <v>0.007626240975821643</v>
       </c>
       <c r="C38">
-        <v>0.01658853430285455</v>
+        <v>-0.03994706547628787</v>
       </c>
       <c r="D38">
-        <v>-0.06500420308617304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01123063367166717</v>
+      </c>
+      <c r="E38">
+        <v>-0.0774755594602646</v>
+      </c>
+      <c r="F38">
+        <v>0.02529776124860532</v>
+      </c>
+      <c r="G38">
+        <v>0.0221474181462205</v>
+      </c>
+      <c r="H38">
+        <v>-0.0521034704408661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.008564153170901784</v>
+        <v>0.008630036697881139</v>
       </c>
       <c r="C39">
-        <v>0.07558936600512015</v>
+        <v>-0.1022130270360446</v>
       </c>
       <c r="D39">
-        <v>-0.1105502709613606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01742091912928379</v>
+      </c>
+      <c r="E39">
+        <v>-0.1136167792771352</v>
+      </c>
+      <c r="F39">
+        <v>0.007949577009449585</v>
+      </c>
+      <c r="G39">
+        <v>-0.005259626718127337</v>
+      </c>
+      <c r="H39">
+        <v>0.02950173321049189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0006692926187583245</v>
+        <v>0.008251551348164715</v>
       </c>
       <c r="C40">
-        <v>0.02866681614503519</v>
+        <v>-0.04983670892231196</v>
       </c>
       <c r="D40">
-        <v>-0.1002585716524201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01711704429735806</v>
+      </c>
+      <c r="E40">
+        <v>-0.1219547564083062</v>
+      </c>
+      <c r="F40">
+        <v>0.006667978238514037</v>
+      </c>
+      <c r="G40">
+        <v>-0.03900563423795725</v>
+      </c>
+      <c r="H40">
+        <v>0.00513177703718284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.006566450278564896</v>
+        <v>0.01649798016424816</v>
       </c>
       <c r="C41">
-        <v>0.02200184080502804</v>
+        <v>-0.03998399912606525</v>
       </c>
       <c r="D41">
-        <v>-0.01694550063715897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01113050860183996</v>
+      </c>
+      <c r="E41">
+        <v>-0.01983282511091808</v>
+      </c>
+      <c r="F41">
+        <v>-0.003608245895294988</v>
+      </c>
+      <c r="G41">
+        <v>0.0006563360734580223</v>
+      </c>
+      <c r="H41">
+        <v>-0.007222058611884849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004601787135824138</v>
+        <v>0.007752393116870883</v>
       </c>
       <c r="C43">
-        <v>0.0166341702140222</v>
+        <v>-0.03257901317233811</v>
       </c>
       <c r="D43">
-        <v>-0.03512134599136361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006510613968047627</v>
+      </c>
+      <c r="E43">
+        <v>-0.03961297854731244</v>
+      </c>
+      <c r="F43">
+        <v>0.00513685338763127</v>
+      </c>
+      <c r="G43">
+        <v>0.007918723630141703</v>
+      </c>
+      <c r="H43">
+        <v>-0.008205570248018058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01209537914086786</v>
+        <v>0.006707303386222592</v>
       </c>
       <c r="C44">
-        <v>0.05576985014381214</v>
+        <v>-0.07308558003045092</v>
       </c>
       <c r="D44">
-        <v>-0.08855760496238119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00115377611023159</v>
+      </c>
+      <c r="E44">
+        <v>-0.1055893175762375</v>
+      </c>
+      <c r="F44">
+        <v>0.05559557540229437</v>
+      </c>
+      <c r="G44">
+        <v>0.005545400229964591</v>
+      </c>
+      <c r="H44">
+        <v>-0.01936759530789664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004944905263648321</v>
+        <v>-0.002412417829028418</v>
       </c>
       <c r="C46">
-        <v>0.04082812285599907</v>
+        <v>-0.05191488020220394</v>
       </c>
       <c r="D46">
-        <v>-0.07352791500155359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.005940433235911017</v>
+      </c>
+      <c r="E46">
+        <v>-0.08164227934216559</v>
+      </c>
+      <c r="F46">
+        <v>0.04088420712332191</v>
+      </c>
+      <c r="G46">
+        <v>-0.01120287880559545</v>
+      </c>
+      <c r="H46">
+        <v>0.01640531163158281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0408940724088236</v>
+        <v>0.02777598486732943</v>
       </c>
       <c r="C47">
-        <v>0.1267643538513028</v>
+        <v>-0.121786503923019</v>
       </c>
       <c r="D47">
-        <v>-0.03896066047302899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004666764050071779</v>
+      </c>
+      <c r="E47">
+        <v>-0.001138987462851584</v>
+      </c>
+      <c r="F47">
+        <v>-0.01153739377864885</v>
+      </c>
+      <c r="G47">
+        <v>0.009194616632634496</v>
+      </c>
+      <c r="H47">
+        <v>-0.02666964435630872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.002654508190727935</v>
+        <v>0.01204767116988841</v>
       </c>
       <c r="C48">
-        <v>0.03307926845578286</v>
+        <v>-0.04591889642619067</v>
       </c>
       <c r="D48">
-        <v>-0.04591667108130557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01730294935214323</v>
+      </c>
+      <c r="E48">
+        <v>-0.06174307682603816</v>
+      </c>
+      <c r="F48">
+        <v>0.0619670065336334</v>
+      </c>
+      <c r="G48">
+        <v>-0.0004380098297573439</v>
+      </c>
+      <c r="H48">
+        <v>-0.00430020191943413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002476802664949412</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006246349289335484</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00254627210493692</v>
+      </c>
+      <c r="E49">
+        <v>-0.003207295602604105</v>
+      </c>
+      <c r="F49">
+        <v>-0.0130694419751152</v>
+      </c>
+      <c r="G49">
+        <v>-0.002503831779266141</v>
+      </c>
+      <c r="H49">
+        <v>0.01477192553494374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0111129621050388</v>
+        <v>0.009464531059262189</v>
       </c>
       <c r="C50">
-        <v>0.06644167240951569</v>
+        <v>-0.0790222086946625</v>
       </c>
       <c r="D50">
-        <v>-0.04918748467774204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01189319633158022</v>
+      </c>
+      <c r="E50">
+        <v>-0.03302662681012632</v>
+      </c>
+      <c r="F50">
+        <v>0.006796409100938705</v>
+      </c>
+      <c r="G50">
+        <v>0.003936062048339741</v>
+      </c>
+      <c r="H50">
+        <v>-0.02714395167774364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.001872067349809848</v>
+        <v>-0.006863446843871275</v>
       </c>
       <c r="C51">
-        <v>0.01944661896391505</v>
+        <v>-0.02987456040940529</v>
       </c>
       <c r="D51">
-        <v>-0.06458939365605869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.009758767047065912</v>
+      </c>
+      <c r="E51">
+        <v>-0.05590105759029369</v>
+      </c>
+      <c r="F51">
+        <v>0.0496602727506336</v>
+      </c>
+      <c r="G51">
+        <v>-0.01707233442505665</v>
+      </c>
+      <c r="H51">
+        <v>-0.00453455910985014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07184307420858527</v>
+        <v>0.05672742015336897</v>
       </c>
       <c r="C53">
-        <v>0.1620344516773123</v>
+        <v>-0.1656039360509005</v>
       </c>
       <c r="D53">
-        <v>0.00944524113823104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02015957567938757</v>
+      </c>
+      <c r="E53">
+        <v>0.05998260597183886</v>
+      </c>
+      <c r="F53">
+        <v>-0.008666232659693775</v>
+      </c>
+      <c r="G53">
+        <v>-0.01343305374026293</v>
+      </c>
+      <c r="H53">
+        <v>-0.03596974128422607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.001273635946408931</v>
+        <v>0.009775820992348718</v>
       </c>
       <c r="C54">
-        <v>0.03944991481421026</v>
+        <v>-0.055600725817403</v>
       </c>
       <c r="D54">
-        <v>-0.08410250794921469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02158774592766525</v>
+      </c>
+      <c r="E54">
+        <v>-0.0744567366596019</v>
+      </c>
+      <c r="F54">
+        <v>0.01565659294251436</v>
+      </c>
+      <c r="G54">
+        <v>-0.001352767067031255</v>
+      </c>
+      <c r="H54">
+        <v>-0.01065814005192209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.05122554286826258</v>
+        <v>0.03522245769718324</v>
       </c>
       <c r="C55">
-        <v>0.1247015353786608</v>
+        <v>-0.1220504959067396</v>
       </c>
       <c r="D55">
-        <v>0.004779101294662832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03786532896756009</v>
+      </c>
+      <c r="E55">
+        <v>0.04400842212373685</v>
+      </c>
+      <c r="F55">
+        <v>-0.03014839748999322</v>
+      </c>
+      <c r="G55">
+        <v>-0.02513487830933904</v>
+      </c>
+      <c r="H55">
+        <v>-0.03959876787440594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.08006381546157437</v>
+        <v>0.05419510643310276</v>
       </c>
       <c r="C56">
-        <v>0.1861551220060516</v>
+        <v>-0.1890383382761926</v>
       </c>
       <c r="D56">
-        <v>-0.01440063925940506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02397603381920852</v>
+      </c>
+      <c r="E56">
+        <v>0.0716312891370115</v>
+      </c>
+      <c r="F56">
+        <v>-0.04213104891139342</v>
+      </c>
+      <c r="G56">
+        <v>-0.05663491798489498</v>
+      </c>
+      <c r="H56">
+        <v>-0.1146053195114963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0123932410505507</v>
+        <v>0.009087567614507314</v>
       </c>
       <c r="C58">
-        <v>0.05618097732916466</v>
+        <v>-0.1058143899193189</v>
       </c>
       <c r="D58">
-        <v>-0.1791255275600038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09328277344976534</v>
+      </c>
+      <c r="E58">
+        <v>-0.190091445376742</v>
+      </c>
+      <c r="F58">
+        <v>0.267939777646486</v>
+      </c>
+      <c r="G58">
+        <v>0.05376519010854963</v>
+      </c>
+      <c r="H58">
+        <v>-0.1165199046416775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.234519825547833</v>
+        <v>0.2662124014016299</v>
       </c>
       <c r="C59">
-        <v>-0.0679236250721461</v>
+        <v>0.04916953356067091</v>
       </c>
       <c r="D59">
-        <v>-0.04475379449723944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01971523901657797</v>
+      </c>
+      <c r="E59">
+        <v>-0.02216695747934471</v>
+      </c>
+      <c r="F59">
+        <v>0.05147716366895112</v>
+      </c>
+      <c r="G59">
+        <v>-0.03221311545135935</v>
+      </c>
+      <c r="H59">
+        <v>-0.005621285753364254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1431371580546632</v>
+        <v>0.150661318265422</v>
       </c>
       <c r="C60">
-        <v>0.1342272991909172</v>
+        <v>-0.1601553190292668</v>
       </c>
       <c r="D60">
-        <v>-0.1174007695021094</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01704430469475184</v>
+      </c>
+      <c r="E60">
+        <v>-0.1184048090052721</v>
+      </c>
+      <c r="F60">
+        <v>-0.2199332053861417</v>
+      </c>
+      <c r="G60">
+        <v>-0.02159497902497129</v>
+      </c>
+      <c r="H60">
+        <v>0.2349749151573442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01310643567650716</v>
+        <v>0.01490551583016893</v>
       </c>
       <c r="C61">
-        <v>0.06598579356222566</v>
+        <v>-0.0886366125879809</v>
       </c>
       <c r="D61">
-        <v>-0.07464153272518116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.008339412478925945</v>
+      </c>
+      <c r="E61">
+        <v>-0.07772297142588561</v>
+      </c>
+      <c r="F61">
+        <v>-0.002448701572539349</v>
+      </c>
+      <c r="G61">
+        <v>-0.00836354748883599</v>
+      </c>
+      <c r="H61">
+        <v>0.005204443745708459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001404107191942566</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0006422394583245501</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>9.097215022492104e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.0002958530507869049</v>
+      </c>
+      <c r="F62">
+        <v>0.002134674283727645</v>
+      </c>
+      <c r="G62">
+        <v>-0.0001095922978324254</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009764698451409755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.002470734242230125</v>
+        <v>0.01622647550756894</v>
       </c>
       <c r="C63">
-        <v>0.04488104093468087</v>
+        <v>-0.06234044359967942</v>
       </c>
       <c r="D63">
-        <v>-0.06986607357647305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02349684289389352</v>
+      </c>
+      <c r="E63">
+        <v>-0.08198613178576054</v>
+      </c>
+      <c r="F63">
+        <v>0.01717272279032993</v>
+      </c>
+      <c r="G63">
+        <v>-0.001130725502397434</v>
+      </c>
+      <c r="H63">
+        <v>0.01106072397608408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02784583150527547</v>
+        <v>0.01547632472915023</v>
       </c>
       <c r="C64">
-        <v>0.1092925944131508</v>
+        <v>-0.1062555902939961</v>
       </c>
       <c r="D64">
-        <v>-0.01674269847175476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01892578253125224</v>
+      </c>
+      <c r="E64">
+        <v>-0.01615994591738403</v>
+      </c>
+      <c r="F64">
+        <v>0.01301830022807713</v>
+      </c>
+      <c r="G64">
+        <v>0.03493291652014824</v>
+      </c>
+      <c r="H64">
+        <v>0.02839786876301567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02087639941202233</v>
+        <v>0.02542085536728922</v>
       </c>
       <c r="C65">
-        <v>0.03654175624275419</v>
+        <v>-0.06124822042470875</v>
       </c>
       <c r="D65">
-        <v>-0.09109784434501689</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03006681264438045</v>
+      </c>
+      <c r="E65">
+        <v>-0.1130831632219432</v>
+      </c>
+      <c r="F65">
+        <v>-0.0005596144016465485</v>
+      </c>
+      <c r="G65">
+        <v>0.04638936980258952</v>
+      </c>
+      <c r="H65">
+        <v>0.06069424401759201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01524303731107906</v>
+        <v>0.01066600360650465</v>
       </c>
       <c r="C66">
-        <v>0.0928377580691998</v>
+        <v>-0.1258914049281775</v>
       </c>
       <c r="D66">
-        <v>-0.1368690635271362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01304225889487558</v>
+      </c>
+      <c r="E66">
+        <v>-0.1273057020707195</v>
+      </c>
+      <c r="F66">
+        <v>0.02131203590989907</v>
+      </c>
+      <c r="G66">
+        <v>-0.006448107478080738</v>
+      </c>
+      <c r="H66">
+        <v>0.0009160463218315119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01611364028359416</v>
+        <v>0.01668970694195018</v>
       </c>
       <c r="C67">
-        <v>0.02140245264073177</v>
+        <v>-0.04107197895784923</v>
       </c>
       <c r="D67">
-        <v>-0.03610913717180592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0044857730486974</v>
+      </c>
+      <c r="E67">
+        <v>-0.05403296052110627</v>
+      </c>
+      <c r="F67">
+        <v>-0.01709359358309873</v>
+      </c>
+      <c r="G67">
+        <v>0.01510155126592899</v>
+      </c>
+      <c r="H67">
+        <v>-0.03524969701711964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2368513761269949</v>
+        <v>0.2782430448152112</v>
       </c>
       <c r="C68">
-        <v>-0.0809980033706149</v>
+        <v>0.05870101898242244</v>
       </c>
       <c r="D68">
-        <v>-0.02248666935509458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0343450817063808</v>
+      </c>
+      <c r="E68">
+        <v>-0.02697416895377653</v>
+      </c>
+      <c r="F68">
+        <v>0.0513552102288897</v>
+      </c>
+      <c r="G68">
+        <v>0.001988860776539005</v>
+      </c>
+      <c r="H68">
+        <v>-0.03090486977999232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.03030199225197616</v>
+        <v>0.01323311120923379</v>
       </c>
       <c r="C69">
-        <v>0.1290928143781329</v>
+        <v>-0.1104706621122002</v>
       </c>
       <c r="D69">
-        <v>-0.05099381076989368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01106950689417458</v>
+      </c>
+      <c r="E69">
+        <v>-0.007169896109901266</v>
+      </c>
+      <c r="F69">
+        <v>-0.02048126524435754</v>
+      </c>
+      <c r="G69">
+        <v>-0.005760703650157494</v>
+      </c>
+      <c r="H69">
+        <v>-0.02556859677586337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2586524556017984</v>
+        <v>0.2694701271192086</v>
       </c>
       <c r="C71">
-        <v>-0.1011915925887266</v>
+        <v>0.07727111193941238</v>
       </c>
       <c r="D71">
-        <v>-0.01218319077457207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02276915240366178</v>
+      </c>
+      <c r="E71">
+        <v>-0.00506649144563456</v>
+      </c>
+      <c r="F71">
+        <v>0.0272087040743713</v>
+      </c>
+      <c r="G71">
+        <v>0.006913236276780756</v>
+      </c>
+      <c r="H71">
+        <v>-0.0474131790896387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.07749123663833245</v>
+        <v>0.06352841186375513</v>
       </c>
       <c r="C72">
-        <v>0.1125210993001955</v>
+        <v>-0.132955407010333</v>
       </c>
       <c r="D72">
-        <v>-0.09970232316034992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01693750422728136</v>
+      </c>
+      <c r="E72">
+        <v>-0.07377914559947618</v>
+      </c>
+      <c r="F72">
+        <v>-0.03663382121669214</v>
+      </c>
+      <c r="G72">
+        <v>0.01934635018171305</v>
+      </c>
+      <c r="H72">
+        <v>0.0486657162120562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1336418656650577</v>
+        <v>0.1506835054879027</v>
       </c>
       <c r="C73">
-        <v>0.115541097865609</v>
+        <v>-0.1727204467565539</v>
       </c>
       <c r="D73">
-        <v>-0.1885231597523474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06715694576919634</v>
+      </c>
+      <c r="E73">
+        <v>-0.2426010005377845</v>
+      </c>
+      <c r="F73">
+        <v>-0.3585815535196105</v>
+      </c>
+      <c r="G73">
+        <v>0.02547590377710455</v>
+      </c>
+      <c r="H73">
+        <v>0.3535052942837553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.06309918485106961</v>
+        <v>0.04554798975352554</v>
       </c>
       <c r="C74">
-        <v>0.1426840747888413</v>
+        <v>-0.1379851458071232</v>
       </c>
       <c r="D74">
-        <v>0.05799043869508754</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03099246332161717</v>
+      </c>
+      <c r="E74">
+        <v>0.07893340833038938</v>
+      </c>
+      <c r="F74">
+        <v>-0.01222365816611954</v>
+      </c>
+      <c r="G74">
+        <v>-0.004887013024810641</v>
+      </c>
+      <c r="H74">
+        <v>-0.03556469971343773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.156532796532762</v>
+        <v>0.09263694508271493</v>
       </c>
       <c r="C75">
-        <v>0.2444413798357683</v>
+        <v>-0.2419350279033323</v>
       </c>
       <c r="D75">
-        <v>0.04289263730632618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02865520654834666</v>
+      </c>
+      <c r="E75">
+        <v>0.168660295012659</v>
+      </c>
+      <c r="F75">
+        <v>-0.1299177005141516</v>
+      </c>
+      <c r="G75">
+        <v>-0.02330226885678272</v>
+      </c>
+      <c r="H75">
+        <v>-0.2474076056982201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.08351448653694774</v>
+        <v>0.05382102775097968</v>
       </c>
       <c r="C76">
-        <v>0.1727241161236552</v>
+        <v>-0.1747632330561508</v>
       </c>
       <c r="D76">
-        <v>-0.002732410987503326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02974763561330806</v>
+      </c>
+      <c r="E76">
+        <v>0.06704257962244281</v>
+      </c>
+      <c r="F76">
+        <v>-0.06820288693849512</v>
+      </c>
+      <c r="G76">
+        <v>-0.04552790132909186</v>
+      </c>
+      <c r="H76">
+        <v>-0.08181774125383641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01259541262317576</v>
+        <v>0.01694177772286206</v>
       </c>
       <c r="C77">
-        <v>0.09568881757879669</v>
+        <v>-0.135095653562617</v>
       </c>
       <c r="D77">
-        <v>-0.1614166336360177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9362649698725495</v>
+      </c>
+      <c r="E77">
+        <v>0.2010380263602232</v>
+      </c>
+      <c r="F77">
+        <v>-0.1198324150554849</v>
+      </c>
+      <c r="G77">
+        <v>0.09089319191863668</v>
+      </c>
+      <c r="H77">
+        <v>0.1266603817206274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02336864691651349</v>
+        <v>0.02402936776620714</v>
       </c>
       <c r="C78">
-        <v>0.09508736953060452</v>
+        <v>-0.1051124839664411</v>
       </c>
       <c r="D78">
-        <v>-0.1151749423215478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01734234092603708</v>
+      </c>
+      <c r="E78">
+        <v>-0.08049415133882178</v>
+      </c>
+      <c r="F78">
+        <v>0.07448855612993267</v>
+      </c>
+      <c r="G78">
+        <v>-0.05790354350517377</v>
+      </c>
+      <c r="H78">
+        <v>-0.07545334886186075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07234700645913864</v>
+        <v>0.05315106114326246</v>
       </c>
       <c r="C79">
-        <v>0.3388666564802758</v>
+        <v>-0.2670348318997883</v>
       </c>
       <c r="D79">
-        <v>0.661723549689069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1731955535935189</v>
+      </c>
+      <c r="E79">
+        <v>0.4461458329705623</v>
+      </c>
+      <c r="F79">
+        <v>0.5000134394849692</v>
+      </c>
+      <c r="G79">
+        <v>0.3449838441674473</v>
+      </c>
+      <c r="H79">
+        <v>0.5097172615156709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003370232311509542</v>
+        <v>0.0087863450515167</v>
       </c>
       <c r="C80">
-        <v>0.05149995225831331</v>
+        <v>-0.05181764276439614</v>
       </c>
       <c r="D80">
-        <v>-0.03661420443540658</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03049849549180086</v>
+      </c>
+      <c r="E80">
+        <v>-0.05716016421763076</v>
+      </c>
+      <c r="F80">
+        <v>-0.01205651093902614</v>
+      </c>
+      <c r="G80">
+        <v>-0.05781042653090816</v>
+      </c>
+      <c r="H80">
+        <v>0.04394716865048177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06441671125599539</v>
+        <v>0.02983374705497371</v>
       </c>
       <c r="C81">
-        <v>0.1648811909225417</v>
+        <v>-0.1575112997333775</v>
       </c>
       <c r="D81">
-        <v>0.07009424487924183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03321660867846785</v>
+      </c>
+      <c r="E81">
+        <v>0.1098664650725091</v>
+      </c>
+      <c r="F81">
+        <v>-0.001567931060961881</v>
+      </c>
+      <c r="G81">
+        <v>-0.04388981236105253</v>
+      </c>
+      <c r="H81">
+        <v>-0.09414457275814624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1174608952448488</v>
+        <v>0.06850236508895531</v>
       </c>
       <c r="C82">
-        <v>0.257700322742236</v>
+        <v>-0.2232359786523982</v>
       </c>
       <c r="D82">
-        <v>0.04095182048149139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04584519873901764</v>
+      </c>
+      <c r="E82">
+        <v>0.1503874638660743</v>
+      </c>
+      <c r="F82">
+        <v>-0.07485862878828238</v>
+      </c>
+      <c r="G82">
+        <v>-0.1018933877785923</v>
+      </c>
+      <c r="H82">
+        <v>-0.1536538900724764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01649333014768694</v>
+        <v>-0.005754179933594782</v>
       </c>
       <c r="C83">
-        <v>0.05862814588577374</v>
+        <v>-0.02055523793388778</v>
       </c>
       <c r="D83">
-        <v>-0.00692854310906395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07792333033695735</v>
+      </c>
+      <c r="E83">
+        <v>0.09581734286870766</v>
+      </c>
+      <c r="F83">
+        <v>0.248251623267025</v>
+      </c>
+      <c r="G83">
+        <v>-0.8651789343562278</v>
+      </c>
+      <c r="H83">
+        <v>0.2571504182588781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002525348466185126</v>
+        <v>-0.002933991063051698</v>
       </c>
       <c r="C84">
-        <v>0.01056226870260165</v>
+        <v>-0.02569860793697806</v>
       </c>
       <c r="D84">
-        <v>-0.02307159841823182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.007881393914889935</v>
+      </c>
+      <c r="E84">
+        <v>-0.04522686703881777</v>
+      </c>
+      <c r="F84">
+        <v>0.0606148506462485</v>
+      </c>
+      <c r="G84">
+        <v>0.02909936771492624</v>
+      </c>
+      <c r="H84">
+        <v>-0.0614295711280826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.07504808428860019</v>
+        <v>0.0468049535561836</v>
       </c>
       <c r="C85">
-        <v>0.1835467666240364</v>
+        <v>-0.1737360598051568</v>
       </c>
       <c r="D85">
-        <v>0.08475637815458645</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.07932430310098683</v>
+      </c>
+      <c r="E85">
+        <v>0.1202606626987027</v>
+      </c>
+      <c r="F85">
+        <v>-0.009936149071611399</v>
+      </c>
+      <c r="G85">
+        <v>-0.009145517941509239</v>
+      </c>
+      <c r="H85">
+        <v>-0.0581694663500002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02717909112048971</v>
+        <v>0.01613574395632577</v>
       </c>
       <c r="C86">
-        <v>0.02653195533463956</v>
+        <v>-0.05448358377179307</v>
       </c>
       <c r="D86">
-        <v>-0.07231601864545135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04683300658288669</v>
+      </c>
+      <c r="E86">
+        <v>-0.04721593687766718</v>
+      </c>
+      <c r="F86">
+        <v>0.08009775903661119</v>
+      </c>
+      <c r="G86">
+        <v>0.03074478032280582</v>
+      </c>
+      <c r="H86">
+        <v>-0.05449375554615509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02162970898277068</v>
+        <v>0.01367756235401836</v>
       </c>
       <c r="C87">
-        <v>0.06502458436079427</v>
+        <v>-0.08527360821288395</v>
       </c>
       <c r="D87">
-        <v>-0.1250684317596752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04220030030404139</v>
+      </c>
+      <c r="E87">
+        <v>-0.1056237385034727</v>
+      </c>
+      <c r="F87">
+        <v>0.09127081836877747</v>
+      </c>
+      <c r="G87">
+        <v>0.002846349087267606</v>
+      </c>
+      <c r="H87">
+        <v>-0.05018711959840669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03246429485343101</v>
+        <v>0.03411678531881222</v>
       </c>
       <c r="C88">
-        <v>0.074884464338482</v>
+        <v>-0.08209447174594832</v>
       </c>
       <c r="D88">
-        <v>-0.00461954262696826</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01259213450227521</v>
+      </c>
+      <c r="E88">
+        <v>-0.01459901365774317</v>
+      </c>
+      <c r="F88">
+        <v>-0.008515703071479886</v>
+      </c>
+      <c r="G88">
+        <v>0.001771857659004031</v>
+      </c>
+      <c r="H88">
+        <v>-0.002143881298751518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.4162386213649255</v>
+        <v>0.4041112291181139</v>
       </c>
       <c r="C89">
-        <v>-0.1981761264774491</v>
+        <v>0.1517370910514577</v>
       </c>
       <c r="D89">
-        <v>0.01213651137504821</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01497244488478346</v>
+      </c>
+      <c r="E89">
+        <v>-0.01803871375543303</v>
+      </c>
+      <c r="F89">
+        <v>0.1247752322494094</v>
+      </c>
+      <c r="G89">
+        <v>-0.08754488781833954</v>
+      </c>
+      <c r="H89">
+        <v>0.01204863846015422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3196885294545844</v>
+        <v>0.3243193565050508</v>
       </c>
       <c r="C90">
-        <v>-0.130448954254192</v>
+        <v>0.09046975366709885</v>
       </c>
       <c r="D90">
-        <v>-0.06540501766737795</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03249329820900514</v>
+      </c>
+      <c r="E90">
+        <v>-0.03430390442233019</v>
+      </c>
+      <c r="F90">
+        <v>0.00296969531591136</v>
+      </c>
+      <c r="G90">
+        <v>-0.01001717798301137</v>
+      </c>
+      <c r="H90">
+        <v>-0.04145120191521999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09347653665820516</v>
+        <v>0.06231455605850819</v>
       </c>
       <c r="C91">
-        <v>0.224985396465266</v>
+        <v>-0.1919095786002738</v>
       </c>
       <c r="D91">
-        <v>0.09300243994997973</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02442245824152474</v>
+      </c>
+      <c r="E91">
+        <v>0.1579031537465179</v>
+      </c>
+      <c r="F91">
+        <v>-0.004048326340293331</v>
+      </c>
+      <c r="G91">
+        <v>-0.03124370631374593</v>
+      </c>
+      <c r="H91">
+        <v>-0.0383342758801636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3193322998584835</v>
+        <v>0.3424699522168803</v>
       </c>
       <c r="C92">
-        <v>-0.1451402428863206</v>
+        <v>0.1208940709951637</v>
       </c>
       <c r="D92">
-        <v>0.02517010828964756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04069449379178539</v>
+      </c>
+      <c r="E92">
+        <v>0.01848099997526378</v>
+      </c>
+      <c r="F92">
+        <v>0.06431601005323463</v>
+      </c>
+      <c r="G92">
+        <v>0.07492585873436818</v>
+      </c>
+      <c r="H92">
+        <v>-0.05335969432622595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3369784266453792</v>
+        <v>0.3308153869382686</v>
       </c>
       <c r="C93">
-        <v>-0.1490935210953104</v>
+        <v>0.1177120487744702</v>
       </c>
       <c r="D93">
-        <v>0.02996617642751708</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02531374029678286</v>
+      </c>
+      <c r="E93">
+        <v>0.01568696237365591</v>
+      </c>
+      <c r="F93">
+        <v>0.009971371458486308</v>
+      </c>
+      <c r="G93">
+        <v>0.05103248204099989</v>
+      </c>
+      <c r="H93">
+        <v>0.001561141937582181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1585147676752146</v>
+        <v>0.109742084033366</v>
       </c>
       <c r="C94">
-        <v>0.2794898386356918</v>
+        <v>-0.265731285997242</v>
       </c>
       <c r="D94">
-        <v>0.09214870745178125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.09400677876057478</v>
+      </c>
+      <c r="E94">
+        <v>0.2612457285907105</v>
+      </c>
+      <c r="F94">
+        <v>-0.1676288603285445</v>
+      </c>
+      <c r="G94">
+        <v>-0.1128421306505349</v>
+      </c>
+      <c r="H94">
+        <v>-0.3180229105778601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.03103527946062861</v>
+        <v>0.03237047810639749</v>
       </c>
       <c r="C95">
-        <v>0.05589592168968814</v>
+        <v>-0.0926115704031593</v>
       </c>
       <c r="D95">
-        <v>-0.07389292140086538</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.03381262312871143</v>
+      </c>
+      <c r="E95">
+        <v>-0.07242272108718081</v>
+      </c>
+      <c r="F95">
+        <v>-0.0528234932230941</v>
+      </c>
+      <c r="G95">
+        <v>-0.01602757518736673</v>
+      </c>
+      <c r="H95">
+        <v>-0.02973731263264835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002288774481772208</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001729524070941759</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.004339086778183882</v>
+      </c>
+      <c r="E97">
+        <v>-0.004807294492045194</v>
+      </c>
+      <c r="F97">
+        <v>-0.000134289261645938</v>
+      </c>
+      <c r="G97">
+        <v>0.005348653081875691</v>
+      </c>
+      <c r="H97">
+        <v>-0.003961620428697057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1150571877139287</v>
+        <v>0.132183772369806</v>
       </c>
       <c r="C98">
-        <v>0.1041868492921286</v>
+        <v>-0.1482610167614431</v>
       </c>
       <c r="D98">
-        <v>-0.1395465002804453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06568792724649794</v>
+      </c>
+      <c r="E98">
+        <v>-0.1771295185446373</v>
+      </c>
+      <c r="F98">
+        <v>-0.2769117962004716</v>
+      </c>
+      <c r="G98">
+        <v>0.03619382910350587</v>
+      </c>
+      <c r="H98">
+        <v>0.2971876867432229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001314567197434343</v>
+        <v>0.002953366299852411</v>
       </c>
       <c r="C101">
-        <v>0.03344150730776391</v>
+        <v>-0.05770114098319759</v>
       </c>
       <c r="D101">
-        <v>-0.0751712322822059</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-2.839332867480653e-05</v>
+      </c>
+      <c r="E101">
+        <v>-0.1140853431730614</v>
+      </c>
+      <c r="F101">
+        <v>0.04119763724725817</v>
+      </c>
+      <c r="G101">
+        <v>-0.03564384210335856</v>
+      </c>
+      <c r="H101">
+        <v>0.0593102849548018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.05027229084533554</v>
+        <v>0.01862314400535108</v>
       </c>
       <c r="C102">
-        <v>0.1391748396937297</v>
+        <v>-0.0986520590586429</v>
       </c>
       <c r="D102">
-        <v>-0.003725981866109479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.02470657421525731</v>
+      </c>
+      <c r="E102">
+        <v>0.06754963855745745</v>
+      </c>
+      <c r="F102">
+        <v>-0.05437251299471067</v>
+      </c>
+      <c r="G102">
+        <v>-0.04553349335912238</v>
+      </c>
+      <c r="H102">
+        <v>-0.04365507251865042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
